--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>818306.7822700472</v>
+        <v>825393.3882085209</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6465050.950138947</v>
+        <v>5312247.587582166</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4913218.39226478</v>
+        <v>3783355.816622883</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7878908.102410058</v>
+        <v>8336416.861321236</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -665,19 +667,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>302.8765329246385</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>36.90303892749792</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.17612189871398</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>40.3950232139772</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>144.4439334101596</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1114,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>148.1411127632385</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>13.05397506508906</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1184,13 +1186,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1731849896783</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>283.4838194867627</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>208.3015676215477</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1436,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1594,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1612,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>112.5963172728866</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>19.69433296427988</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1780,10 +1782,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169115</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>135.125136865921</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2014,7 +2016,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>148.7454954850361</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>166.4741484043119</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>144.8805534512612</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.71778595684852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2336,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>240.5095967917952</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.595211067239</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>309.8783980016757</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -2731,7 +2733,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>191.856039030562</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2804,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>47.64512042712314</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>126.8750864717065</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>393.9842995440077</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>283.7777510779965</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>153.0251390105131</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3250,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>17.62297837539424</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>101.6409518870423</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3472,7 +3474,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3487,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>129.1752199258842</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3557,10 +3559,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>10.75225210311722</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.06736062834964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>328.2841900177711</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>343.2559819443612</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3913,10 +3915,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3986,13 +3988,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>367.0862040959715</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>99.54248592713392</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>29.06736062834946</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>113.6794429932546</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2408.163639064399</v>
+        <v>893.629403119734</v>
       </c>
       <c r="C2" t="n">
-        <v>1998.03904837767</v>
+        <v>483.5048124330041</v>
       </c>
       <c r="D2" t="n">
-        <v>1593.57511847073</v>
+        <v>79.04088252606459</v>
       </c>
       <c r="E2" t="n">
-        <v>1287.639226627661</v>
+        <v>79.04088252606459</v>
       </c>
       <c r="F2" t="n">
-        <v>866.6088145813485</v>
+        <v>79.04088252606459</v>
       </c>
       <c r="G2" t="n">
-        <v>457.8805304741806</v>
+        <v>79.04088252606459</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9720331018986</v>
+        <v>79.04088252606459</v>
       </c>
       <c r="I2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>598.7797715280112</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1311.371171340249</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1311.371171340249</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>1817.669320922766</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>2461.300177339871</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2990.456875259023</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2990.456875259023</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2808.807036895447</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2808.807036895447</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2808.807036895447</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2808.807036895447</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X2" t="n">
-        <v>2408.163639064399</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y2" t="n">
-        <v>2408.163639064399</v>
+        <v>1303.850582784223</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>739.4511123055061</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>605.4560410544518</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>488.5588832738442</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>368.0660672661722</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>259.1061874486768</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>152.1160747630155</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>81.36886179873159</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>60.62027041897176</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="K3" t="n">
-        <v>60.62027041897176</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="L3" t="n">
-        <v>721.7084423382601</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M3" t="n">
-        <v>811.8869638724175</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N3" t="n">
-        <v>811.8869638724175</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O3" t="n">
-        <v>1515.844054418312</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>2077.549946906842</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2077.549946906842</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1999.119456383781</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1839.777592570789</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1642.426781709008</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1428.715254702041</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1215.48208643837</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1039.156104577263</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>879.7541449410927</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1149.954120720108</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>978.860748281825</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>819.3661036047349</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>658.4552884730543</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>493.8241625836456</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>326.573771509189</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>176.9663163146456</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1403.627398919732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1403.627398919732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1403.627398919732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1403.627398919732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>1403.627398919732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>1165.283536779415</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>1165.283536779415</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1289.549006495744</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="C5" t="n">
-        <v>879.4244158090146</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="D5" t="n">
-        <v>474.960485902075</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>60.62027041897176</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>598.7797715280112</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>598.7797715280112</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>1108.050120177556</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1858.225966612331</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2501.856823029436</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>3031.013520948588</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>3031.013520948588</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2885.110557908023</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>2501.350257043191</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X5" t="n">
-        <v>2100.706859212144</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y5" t="n">
-        <v>1699.770186160234</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739.4511123055061</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>605.4560410544518</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>488.5588832738442</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>368.0660672661722</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>259.1061874486768</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1160747630155</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>81.36886179873159</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>516.4265266842705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1177.514698603559</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1515.844054418312</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1515.844054418312</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.844054418312</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P6" t="n">
-        <v>2077.549946906842</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2077.549946906842</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1999.119456383781</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1839.777592570789</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1642.426781709008</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1428.715254702041</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1215.48208643837</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.156104577263</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>879.7541449410927</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.62027041897176</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1504.746448715222</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1318.354680595132</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1078.805941571834</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>796.0077941179582</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>522.1220490574801</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>243.0523845663545</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="X7" t="n">
-        <v>60.62027041897176</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.62027041897176</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>471.0663638732605</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C8" t="n">
-        <v>471.0663638732605</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D8" t="n">
-        <v>457.8805304741806</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E8" t="n">
-        <v>457.8805304741806</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F8" t="n">
-        <v>457.8805304741806</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G8" t="n">
-        <v>457.8805304741806</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H8" t="n">
-        <v>146.9720331018986</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I8" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>60.62027041897176</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K8" t="n">
-        <v>598.7797715280112</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L8" t="n">
-        <v>1311.371171340249</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M8" t="n">
-        <v>1311.371171340249</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N8" t="n">
-        <v>2061.547017775025</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O8" t="n">
-        <v>2140.139170544579</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P8" t="n">
-        <v>2669.295868463731</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q8" t="n">
-        <v>2990.456875259023</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>2895.732445742689</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>2673.525961689548</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="U8" t="n">
-        <v>2416.465469949058</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="V8" t="n">
-        <v>2066.627915285539</v>
+        <v>4143.079963151549</v>
       </c>
       <c r="W8" t="n">
-        <v>1682.867614420707</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X8" t="n">
-        <v>1282.22421658966</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y8" t="n">
-        <v>881.2875435377499</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C9" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D9" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E9" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F9" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G9" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H9" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K9" t="n">
-        <v>516.4265266842705</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L9" t="n">
-        <v>1177.514698603559</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M9" t="n">
-        <v>1177.514698603559</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N9" t="n">
-        <v>1177.514698603559</v>
+        <v>1808.205892259994</v>
       </c>
       <c r="O9" t="n">
-        <v>1881.471789149453</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P9" t="n">
-        <v>2077.549946906842</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q9" t="n">
-        <v>2077.549946906842</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S9" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T9" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U9" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V9" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W9" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X9" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y9" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J10" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K10" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L10" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M10" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N10" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O10" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P10" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q10" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1504.746448715222</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S10" t="n">
-        <v>1318.354680595132</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T10" t="n">
-        <v>1078.805941571834</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U10" t="n">
-        <v>796.0077941179582</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V10" t="n">
-        <v>522.1220490574801</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W10" t="n">
-        <v>243.0523845663545</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>875.2087910126411</v>
+        <v>2419.525488667039</v>
       </c>
       <c r="C11" t="n">
-        <v>465.0842003259112</v>
+        <v>2009.400897980309</v>
       </c>
       <c r="D11" t="n">
-        <v>60.62027041897176</v>
+        <v>1604.93696807337</v>
       </c>
       <c r="E11" t="n">
-        <v>60.62027041897176</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F11" t="n">
-        <v>60.62027041897176</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G11" t="n">
-        <v>60.62027041897176</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H11" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I11" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>60.62027041897176</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K11" t="n">
-        <v>60.62027041897176</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L11" t="n">
-        <v>773.2116702312098</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M11" t="n">
-        <v>1523.387516665985</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N11" t="n">
-        <v>2273.563363100761</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O11" t="n">
-        <v>2917.194219517866</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P11" t="n">
-        <v>2990.456875259023</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q11" t="n">
-        <v>2990.456875259023</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R11" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T11" t="n">
-        <v>3031.013520948588</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U11" t="n">
-        <v>2820.607897088439</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V11" t="n">
-        <v>2470.770342424919</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W11" t="n">
-        <v>2087.010041560088</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X11" t="n">
-        <v>1686.36664372904</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y11" t="n">
-        <v>1285.429970677131</v>
+        <v>2829.746668331528</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1663.355166984622</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C12" t="n">
-        <v>1529.360095733568</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D12" t="n">
-        <v>1412.462937952961</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E12" t="n">
-        <v>1291.970121945289</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F12" t="n">
-        <v>1183.010242127793</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G12" t="n">
-        <v>1076.020129442132</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H12" t="n">
-        <v>1005.272916477848</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>984.5243250980881</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>1177.337182660721</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>1177.337182660721</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>1838.42535458001</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="M12" t="n">
-        <v>1838.42535458001</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="N12" t="n">
-        <v>2469.307628460058</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="O12" t="n">
-        <v>2469.307628460058</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="P12" t="n">
-        <v>3031.013520948588</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q12" t="n">
-        <v>3031.013520948588</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R12" t="n">
-        <v>3031.013520948588</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S12" t="n">
-        <v>2923.023511062897</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T12" t="n">
-        <v>2763.681647249905</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U12" t="n">
-        <v>2566.330836388124</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V12" t="n">
-        <v>2352.619309381158</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W12" t="n">
-        <v>2139.386141117486</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X12" t="n">
-        <v>1963.060159256379</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y12" t="n">
-        <v>1803.658199620209</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J13" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K13" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L13" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M13" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N13" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O13" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P13" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1560.658196708156</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1374.266428588066</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1134.717689564768</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U13" t="n">
-        <v>851.9195421108921</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V13" t="n">
-        <v>578.033797050414</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W13" t="n">
-        <v>298.9641325592884</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X13" t="n">
-        <v>60.62027041897176</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.843772742285</v>
+        <v>2153.869890821028</v>
       </c>
       <c r="C14" t="n">
-        <v>1304.719182055555</v>
+        <v>1743.745300134298</v>
       </c>
       <c r="D14" t="n">
-        <v>1304.719182055555</v>
+        <v>1339.281370227359</v>
       </c>
       <c r="E14" t="n">
-        <v>890.3789665724521</v>
+        <v>924.9411547442555</v>
       </c>
       <c r="F14" t="n">
-        <v>469.3485545261396</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G14" t="n">
-        <v>60.62027041897176</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H14" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I14" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>60.62027041897176</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K14" t="n">
-        <v>60.62027041897176</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L14" t="n">
-        <v>773.2116702312098</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M14" t="n">
-        <v>1523.387516665985</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N14" t="n">
-        <v>2273.563363100761</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O14" t="n">
-        <v>2917.194219517866</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P14" t="n">
-        <v>3031.013520948588</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q14" t="n">
-        <v>3031.013520948588</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R14" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>2895.732445742689</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T14" t="n">
-        <v>2895.732445742689</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U14" t="n">
-        <v>2895.732445742689</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V14" t="n">
-        <v>2545.89489107917</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W14" t="n">
-        <v>2526.001625458685</v>
+        <v>3365.671141368475</v>
       </c>
       <c r="X14" t="n">
-        <v>2526.001625458685</v>
+        <v>2965.027743537428</v>
       </c>
       <c r="Y14" t="n">
-        <v>2125.064952406775</v>
+        <v>2564.091070485518</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C15" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D15" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E15" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F15" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G15" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H15" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>60.62027041897176</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K15" t="n">
-        <v>60.62027041897176</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L15" t="n">
-        <v>60.62027041897176</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="M15" t="n">
-        <v>652.976529288802</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="N15" t="n">
-        <v>1403.152375723578</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="O15" t="n">
-        <v>2107.109466269472</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="P15" t="n">
-        <v>2107.109466269472</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S15" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T15" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U15" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V15" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W15" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X15" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y15" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1149.954120720108</v>
+        <v>970.190348929063</v>
       </c>
       <c r="C16" t="n">
-        <v>978.860748281825</v>
+        <v>799.0969764907795</v>
       </c>
       <c r="D16" t="n">
-        <v>819.3661036047349</v>
+        <v>639.6023318136895</v>
       </c>
       <c r="E16" t="n">
-        <v>658.4552884730543</v>
+        <v>478.691516682009</v>
       </c>
       <c r="F16" t="n">
-        <v>493.8241625836456</v>
+        <v>314.0603907926002</v>
       </c>
       <c r="G16" t="n">
-        <v>326.573771509189</v>
+        <v>146.8099997181436</v>
       </c>
       <c r="H16" t="n">
-        <v>176.9663163146456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J16" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K16" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L16" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M16" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N16" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O16" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P16" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="W16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="X16" t="n">
-        <v>1562.389525725388</v>
+        <v>1382.625753934343</v>
       </c>
       <c r="Y16" t="n">
-        <v>1337.653827114153</v>
+        <v>1157.890055323107</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1709.183111962495</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1709.183111962495</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1304.719182055555</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>890.3789665724521</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F17" t="n">
-        <v>469.3485545261396</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>60.62027041897176</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>60.62027041897176</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>60.62027041897176</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>60.62027041897176</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
-        <v>773.2116702312098</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1523.387516665985</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>2273.563363100761</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2917.194219517866</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>3031.013520948588</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>3031.013520948588</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>3031.013520948588</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>3031.013520948588</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>3031.013520948588</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>3031.013520948588</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>2894.523483710284</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>2510.763182845452</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2110.119785014405</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>1709.183111962495</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>739.4511123055061</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C18" t="n">
-        <v>605.4560410544518</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D18" t="n">
-        <v>488.5588832738442</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E18" t="n">
-        <v>368.0660672661722</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F18" t="n">
-        <v>259.1061874486768</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G18" t="n">
-        <v>152.1160747630155</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H18" t="n">
-        <v>81.36886179873159</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I18" t="n">
-        <v>60.62027041897176</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J18" t="n">
-        <v>60.62027041897176</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K18" t="n">
-        <v>516.4265266842705</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L18" t="n">
-        <v>516.4265266842705</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="M18" t="n">
-        <v>1007.089155150713</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="N18" t="n">
-        <v>1757.265001585488</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="O18" t="n">
-        <v>1757.265001585488</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="P18" t="n">
-        <v>1757.265001585488</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q18" t="n">
-        <v>2107.109466269472</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R18" t="n">
-        <v>2107.109466269472</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S18" t="n">
-        <v>1999.119456383781</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T18" t="n">
-        <v>1839.777592570789</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U18" t="n">
-        <v>1642.426781709008</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V18" t="n">
-        <v>1428.715254702041</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W18" t="n">
-        <v>1215.48208643837</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X18" t="n">
-        <v>1039.156104577263</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y18" t="n">
-        <v>879.7541449410927</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>716.7502285554344</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C19" t="n">
-        <v>545.6568561171509</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D19" t="n">
-        <v>386.162211440061</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E19" t="n">
-        <v>225.2513963083805</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F19" t="n">
-        <v>60.62027041897176</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G19" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>74.70281982418228</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>229.2551475464203</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>489.1522478264808</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>778.4163042669741</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.255086661224</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1318.815696987699</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1524.491137237311</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1590.019167039822</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1590.019167039822</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1590.019167039822</v>
+        <v>1387.121900749462</v>
       </c>
       <c r="T19" t="n">
-        <v>1590.019167039822</v>
+        <v>1387.121900749462</v>
       </c>
       <c r="U19" t="n">
-        <v>1590.019167039822</v>
+        <v>1104.323753295587</v>
       </c>
       <c r="V19" t="n">
-        <v>1421.863461580921</v>
+        <v>1104.323753295587</v>
       </c>
       <c r="W19" t="n">
-        <v>1142.793797089795</v>
+        <v>1104.323753295587</v>
       </c>
       <c r="X19" t="n">
-        <v>904.4499349494788</v>
+        <v>1104.323753295587</v>
       </c>
       <c r="Y19" t="n">
-        <v>904.4499349494788</v>
+        <v>1104.323753295587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4624.019917181994</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U20" t="n">
-        <v>4408.238733368956</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.5961886367127</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="C22" t="n">
-        <v>569.5961886367127</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1015439596227</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1015439596227</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1015439596227</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.702087168085</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U22" t="n">
-        <v>913.9039397142094</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V22" t="n">
-        <v>640.0181946537314</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W22" t="n">
-        <v>640.0181946537314</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X22" t="n">
-        <v>640.0181946537314</v>
+        <v>3962.885481594423</v>
       </c>
       <c r="Y22" t="n">
-        <v>569.5961886367127</v>
+        <v>3962.885481594423</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.6240469015422</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C25" t="n">
-        <v>745.5306744632587</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D25" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E25" t="n">
-        <v>425.1252146544881</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F25" t="n">
-        <v>260.4940887650794</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.642594311473</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.642594311473</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W25" t="n">
-        <v>1379.703607653094</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X25" t="n">
-        <v>1141.359745512777</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.6240469015422</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6260,16 +6262,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3734.628350701634</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3350.868049836802</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>2950.224652005755</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2549.287978953845</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6314,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
         <v>1435.775802995229</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>3674.379532790525</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>3674.379532790525</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>3674.379532790525</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>3449.64383417929</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6454,7 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6552,7 +6554,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>421.4049038967599</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>421.4049038967599</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>421.4049038967599</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>260.4940887650794</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6649,22 +6651,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="V31" t="n">
-        <v>700.4745683878855</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W31" t="n">
-        <v>421.4049038967599</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X31" t="n">
-        <v>421.4049038967599</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y31" t="n">
-        <v>421.4049038967599</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6734,16 +6736,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3760.992640523532</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="33">
@@ -6783,13 +6785,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>418.9079176142731</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C34" t="n">
-        <v>247.8145451759896</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D34" t="n">
-        <v>247.8145451759896</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E34" t="n">
-        <v>247.8145451759896</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F34" t="n">
-        <v>247.8145451759896</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V34" t="n">
-        <v>1348.756849250995</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W34" t="n">
-        <v>1069.687184759869</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X34" t="n">
-        <v>831.3433226195527</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.6076240083174</v>
+        <v>257.8748235800315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4559.51725636241</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>93.2436976906228</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N36" t="n">
-        <v>966.9017898022406</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O36" t="n">
-        <v>1670.858880348135</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U37" t="n">
-        <v>3868.173511609275</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V37" t="n">
-        <v>3594.287766548796</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W37" t="n">
-        <v>3315.218102057671</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X37" t="n">
-        <v>3132.785987910289</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="Y37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7205,19 +7207,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V40" t="n">
-        <v>640.0181946537314</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W40" t="n">
-        <v>360.9485301626057</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="X40" t="n">
-        <v>122.6046680222891</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>1077.092362806305</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2153.869890821028</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>1743.745300134298</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1339.281370227359</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1007.681178290216</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>586.6507662439038</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>177.922482136736</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I41" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L41" t="n">
-        <v>1598.180070079655</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M41" t="n">
-        <v>2374.498661071409</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N41" t="n">
-        <v>3127.679677710027</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O41" t="n">
-        <v>3771.310534127132</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P41" t="n">
-        <v>4300.467232046283</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q41" t="n">
-        <v>4621.628238841575</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.18488453114</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U41" t="n">
-        <v>4405.12439279065</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3365.671141368475</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>2965.027743537428</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2564.091070485518</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>772.0745395771571</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>638.0794683261029</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D42" t="n">
-        <v>521.1823105454953</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E42" t="n">
-        <v>400.6894945378233</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F42" t="n">
-        <v>291.7296147203278</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G42" t="n">
-        <v>184.7395020346666</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>113.9922890703826</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>752.6588913730974</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>752.6588913730974</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>752.6588913730974</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1456.615981918992</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>2018.321874407522</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S42" t="n">
-        <v>2031.742883655432</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T42" t="n">
-        <v>1872.40101984244</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U42" t="n">
-        <v>1675.050208980659</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V42" t="n">
-        <v>1461.338681973692</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W42" t="n">
-        <v>1248.105513710021</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X42" t="n">
-        <v>1071.779531848914</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.3775722127438</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4222.119838211426</v>
+        <v>914.9510686647286</v>
       </c>
       <c r="C43" t="n">
-        <v>4051.026465773143</v>
+        <v>743.8576962264451</v>
       </c>
       <c r="D43" t="n">
-        <v>3891.531821096053</v>
+        <v>584.3630515493551</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>423.4522364176745</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>258.8211105282658</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S43" t="n">
-        <v>4409.819544605471</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T43" t="n">
-        <v>4409.819544605471</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U43" t="n">
-        <v>4409.819544605471</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V43" t="n">
-        <v>4409.819544605471</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="W43" t="n">
-        <v>4409.819544605471</v>
+        <v>1565.730335810325</v>
       </c>
       <c r="X43" t="n">
-        <v>4409.819544605471</v>
+        <v>1327.386473670008</v>
       </c>
       <c r="Y43" t="n">
-        <v>4409.819544605471</v>
+        <v>1102.650775058773</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2119.307702649225</v>
+        <v>2410.930382561518</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.183111962495</v>
+        <v>2000.805791874788</v>
       </c>
       <c r="D44" t="n">
-        <v>1304.719182055555</v>
+        <v>1596.341861967849</v>
       </c>
       <c r="E44" t="n">
-        <v>890.3789665724521</v>
+        <v>1182.001646484745</v>
       </c>
       <c r="F44" t="n">
-        <v>469.3485545261396</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G44" t="n">
-        <v>60.62027041897176</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H44" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I44" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>60.62027041897176</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K44" t="n">
-        <v>598.7797715280112</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L44" t="n">
-        <v>1311.371171340249</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M44" t="n">
-        <v>1817.669320922766</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N44" t="n">
-        <v>1817.669320922766</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O44" t="n">
-        <v>2461.300177339871</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P44" t="n">
-        <v>2990.456875259023</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q44" t="n">
-        <v>2990.456875259023</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R44" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T44" t="n">
-        <v>3031.013520948588</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U44" t="n">
-        <v>3031.013520948588</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="V44" t="n">
-        <v>3031.013520948588</v>
+        <v>4006.491933973797</v>
       </c>
       <c r="W44" t="n">
-        <v>3031.013520948588</v>
+        <v>3622.731633108965</v>
       </c>
       <c r="X44" t="n">
-        <v>2930.465555365624</v>
+        <v>3222.088235277918</v>
       </c>
       <c r="Y44" t="n">
-        <v>2529.528882313714</v>
+        <v>2821.151562226008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D45" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E45" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F45" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G45" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>60.62027041897176</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K45" t="n">
-        <v>60.62027041897176</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L45" t="n">
-        <v>721.7084423382601</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="M45" t="n">
-        <v>721.7084423382601</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="N45" t="n">
-        <v>1403.152375723578</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O45" t="n">
-        <v>2107.109466269472</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P45" t="n">
-        <v>2107.109466269472</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q45" t="n">
-        <v>2107.109466269472</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R45" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S45" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T45" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U45" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V45" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W45" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y45" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>824.4121796990191</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C46" t="n">
-        <v>653.3188072607356</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D46" t="n">
-        <v>493.8241625836456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E46" t="n">
-        <v>493.8241625836456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F46" t="n">
-        <v>493.8241625836456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G46" t="n">
-        <v>326.573771509189</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H46" t="n">
-        <v>176.9663163146456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J46" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K46" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L46" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M46" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O46" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P46" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q46" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>1590.019167039822</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T46" t="n">
-        <v>1590.019167039822</v>
+        <v>1195.029108931271</v>
       </c>
       <c r="U46" t="n">
-        <v>1590.019167039822</v>
+        <v>912.2309614773956</v>
       </c>
       <c r="V46" t="n">
-        <v>1590.019167039822</v>
+        <v>638.3452164169175</v>
       </c>
       <c r="W46" t="n">
-        <v>1475.191446844615</v>
+        <v>359.2755519257919</v>
       </c>
       <c r="X46" t="n">
-        <v>1236.847584704299</v>
+        <v>120.9316897854753</v>
       </c>
       <c r="Y46" t="n">
-        <v>1012.111886093064</v>
+        <v>120.9316897854753</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>604.3245630621923</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>198.9610844237786</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>148.6536994294855</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M5" t="n">
-        <v>607.7047180424443</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>850.6656709937663</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,22 +8297,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>399.3111077937234</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>525.371627415828</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8459,22 +8461,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>172.5757885243231</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,28 +8534,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P9" t="n">
-        <v>252.3183802122873</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>167.6520458477096</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,16 +8771,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139343</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>690.4482154948089</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -8787,7 +8789,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>208.6183546250479</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139343</v>
       </c>
       <c r="M15" t="n">
-        <v>655.9039391624884</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>810.9467736308969</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>208.6183546250479</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
-        <v>553.1831003711875</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>810.9467736308969</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>203.6789803756668</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
@@ -10200,10 +10202,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10431,16 +10433,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10668,19 +10670,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P36" t="n">
-        <v>527.8697493391553</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>549.9278720016724</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11078,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11142,22 +11144,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11303,10 +11305,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>604.7024967626185</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11315,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>741.5205988334645</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>107.3202804036338</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.58520612859965</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22600,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22607,7 +22609,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.64658743139</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22768,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22787,10 +22789,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>360.0242673938928</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -22841,7 +22843,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>201.8952457067245</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22939,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23002,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300456</v>
+        <v>87.81931075567493</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,19 +23023,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>387.365315542781</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23072,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>49.16599412720581</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300456</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>126.7129938415096</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.18831920153724</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>304.2237906529627</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>360.2283648919033</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>93.42449318090675</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>211.2140422509632</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>35.78235495385277</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>104.6727392055614</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>96.14494677818598</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>91.07987006765228</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.7705556682744</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24215,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24415,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>35.76937105441917</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557883893</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>36.46078111520842</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>79.29084857931122</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>356.995880838973</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24838,25 +24840,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>70.43669735679174</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>144.2718011381668</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>10.65670172208843</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>62.56142803888758</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25084,10 +25086,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>12.55274815319893</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>218.3374451435192</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>32.28731256679784</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>93.31312169923876</v>
       </c>
     </row>
     <row r="38">
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25445,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>175.0704572269867</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.4209809967733</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>81.91262331050115</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>19.10615505383106</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -25846,13 +25848,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>221.5920803845235</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>49.73390382987782</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25916,19 +25918,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>297.0944779256031</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>156.7553487017545</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26035,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>162.5995248529597</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>601379.5822257837</v>
+        <v>504762.0348035535</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>601379.5822257838</v>
+        <v>504762.0348035536</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>601379.5822257838</v>
+        <v>759975.5605080363</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>601379.582225784</v>
+        <v>759975.5605080364</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>601379.582225784</v>
+        <v>759975.5605080362</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>601379.5822257838</v>
+        <v>768548.2186886567</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>768548.2186886567</v>
+        <v>768548.2186886568</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>768548.2186886567</v>
+        <v>768548.2186886566</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>768548.2186886569</v>
+        <v>768548.2186886568</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>768548.2186886568</v>
+        <v>768548.2186886569</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>768548.2186886567</v>
+        <v>759975.5605080362</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>601379.5822257838</v>
+        <v>759975.5605080362</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237995.8158360003</v>
+        <v>199771.9648954105</v>
       </c>
       <c r="C2" t="n">
-        <v>237995.8158360003</v>
+        <v>199771.9648954104</v>
       </c>
       <c r="D2" t="n">
-        <v>237995.8158360003</v>
+        <v>300739.5843891959</v>
       </c>
       <c r="E2" t="n">
-        <v>237995.8158360004</v>
+        <v>300739.5843891958</v>
       </c>
       <c r="F2" t="n">
-        <v>237995.8158360003</v>
+        <v>300739.5843891958</v>
       </c>
       <c r="G2" t="n">
-        <v>237995.8158360003</v>
+        <v>304131.1009118485</v>
       </c>
       <c r="H2" t="n">
         <v>304131.1009118485</v>
@@ -26335,25 +26337,25 @@
         <v>304131.1009118484</v>
       </c>
       <c r="J2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="K2" t="n">
+        <v>304131.1009118483</v>
+      </c>
+      <c r="L2" t="n">
         <v>304131.1009118484</v>
-      </c>
-      <c r="K2" t="n">
-        <v>304131.1009118484</v>
-      </c>
-      <c r="L2" t="n">
-        <v>304131.1009118485</v>
       </c>
       <c r="M2" t="n">
         <v>304131.1009118485</v>
       </c>
       <c r="N2" t="n">
-        <v>304131.1009118484</v>
+        <v>304131.1009118485</v>
       </c>
       <c r="O2" t="n">
-        <v>304131.1009118485</v>
+        <v>300739.5843891958</v>
       </c>
       <c r="P2" t="n">
-        <v>237995.8158360003</v>
+        <v>300739.5843891958</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253940.5860452134</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5731.72800046337</v>
       </c>
       <c r="H3" t="n">
-        <v>110026.1786092112</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>198261.625418768</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>157566.97087753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46601.34530263986</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="C4" t="n">
-        <v>46601.34530263986</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="D4" t="n">
-        <v>46601.34530263986</v>
+        <v>58978.10473564107</v>
       </c>
       <c r="E4" t="n">
-        <v>46601.34530263986</v>
+        <v>58978.10473564106</v>
       </c>
       <c r="F4" t="n">
-        <v>46601.34530263986</v>
+        <v>58978.10473564107</v>
       </c>
       <c r="G4" t="n">
-        <v>46601.34530263986</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="H4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="I4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782199</v>
       </c>
       <c r="J4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782199</v>
       </c>
       <c r="L4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="M4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="N4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>59647.11115782197</v>
+        <v>58978.10473564108</v>
       </c>
       <c r="P4" t="n">
-        <v>46601.34530263986</v>
+        <v>58978.10473564107</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>79699.00551841853</v>
+        <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="F5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="G5" t="n">
-        <v>46071.40551841853</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="P5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142245.1210302715</v>
+        <v>-79613.96505624056</v>
       </c>
       <c r="C6" t="n">
-        <v>111695.4650149418</v>
+        <v>95341.54483687345</v>
       </c>
       <c r="D6" t="n">
-        <v>111695.4650149419</v>
+        <v>-54848.91756650829</v>
       </c>
       <c r="E6" t="n">
-        <v>145323.065014942</v>
+        <v>172167.7328686598</v>
       </c>
       <c r="F6" t="n">
-        <v>145323.0650149419</v>
+        <v>172167.7328686598</v>
       </c>
       <c r="G6" t="n">
-        <v>145323.0650149419</v>
+        <v>167887.0515086898</v>
       </c>
       <c r="H6" t="n">
-        <v>63592.600899942</v>
+        <v>173618.7795091532</v>
       </c>
       <c r="I6" t="n">
         <v>173618.7795091531</v>
       </c>
       <c r="J6" t="n">
-        <v>-24642.84590961497</v>
+        <v>37023.97870325821</v>
       </c>
       <c r="K6" t="n">
-        <v>173618.7795091531</v>
+        <v>173618.779509153</v>
       </c>
       <c r="L6" t="n">
-        <v>173618.7795091532</v>
+        <v>16051.80863162316</v>
       </c>
       <c r="M6" t="n">
         <v>173618.7795091532</v>
       </c>
       <c r="N6" t="n">
-        <v>173618.779509153</v>
+        <v>173618.7795091533</v>
       </c>
       <c r="O6" t="n">
-        <v>173618.7795091533</v>
+        <v>172167.7328686598</v>
       </c>
       <c r="P6" t="n">
-        <v>145323.065014942</v>
+        <v>172167.7328686598</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="E4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="F4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="G4" t="n">
-        <v>757.753380237147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>1165.546221132785</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="P4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="H4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.7533802371468</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="P4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>511.412272305573</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>91.08941569106811</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="M5" t="n">
-        <v>514.4144935853988</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>341.746824055306</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>471.1119924130243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35179,22 +35181,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>79.38601289853996</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P9" t="n">
-        <v>198.0587452094835</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>74.00268256682548</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>637.2548221010589</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>114.9689913441638</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="M15" t="n">
-        <v>598.339655424071</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>114.9689913441638</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
-        <v>495.6188166327701</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
@@ -36920,10 +36922,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P36" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>460.7914823284553</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37798,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38023,10 +38025,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>511.412272305573</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38035,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>688.3272054397146</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>825393.3882085209</v>
+        <v>822610.3990679447</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8336416.861321236</v>
+        <v>8336416.861321237</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.90303892749792</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>173.0043725424048</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.4591671048103</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -898,25 +898,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.3950232139772</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>53.13071053918306</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>77.72590661309958</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1113,13 +1113,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>148.1411127632385</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1150,7 +1150,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1186,13 +1186,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>297.1731849896783</v>
+        <v>130.4982913525424</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1350,16 +1350,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>168.1821651292103</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1378,13 +1378,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>283.4838194867627</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -1429,7 +1429,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>227.3398802200798</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1438,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>368.2905802809296</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>112.5963172728866</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>54.68688746169115</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="17">
@@ -1852,10 +1852,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>384.5327953590509</v>
+        <v>362.7541333077041</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>148.7454954850361</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>37.78331767565417</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>144.8805534512612</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.595211067239</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V28" t="n">
-        <v>191.856039030562</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>191.9284587841973</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>58.87768236127997</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.7165542762732</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>393.9842995440077</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>17.62297837539424</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>101.6409518870423</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3328,7 +3328,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>330.7262294157694</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>129.1752199258842</v>
+        <v>5.327232787756593</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.75225210311722</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>193.5973536327842</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>328.2841900177711</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3799,10 +3799,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>202.6215768101665</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>54.68688746169084</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,10 +3985,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>292.6754810332161</v>
       </c>
       <c r="F44" t="n">
-        <v>367.0862040959715</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.06736062834946</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>893.629403119734</v>
+        <v>1368.000135152739</v>
       </c>
       <c r="C2" t="n">
-        <v>483.5048124330041</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="D2" t="n">
-        <v>79.04088252606459</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="E2" t="n">
-        <v>79.04088252606459</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F2" t="n">
-        <v>79.04088252606459</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>79.04088252606459</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>79.04088252606459</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1778.221314817228</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1778.221314817228</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1778.221314817228</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.493980615271</v>
+        <v>1778.221314817228</v>
       </c>
       <c r="X2" t="n">
-        <v>1303.850582784223</v>
+        <v>1778.221314817228</v>
       </c>
       <c r="Y2" t="n">
-        <v>1303.850582784223</v>
+        <v>1778.221314817228</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>187.8810127971431</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>187.8810127971431</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>704.7239474634683</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4546,22 +4546,22 @@
         <v>492.6927300678241</v>
       </c>
       <c r="C5" t="n">
-        <v>82.56813938109417</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960205</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,22 +4570,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L5" t="n">
-        <v>692.8507596625949</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4658,16 +4658,16 @@
         <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.8584580678856</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1492.652965469543</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1306.261197349453</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1066.712458326155</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="V7" t="n">
-        <v>774.9313507128002</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W7" t="n">
-        <v>774.9313507128002</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X7" t="n">
-        <v>625.2938630731653</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>400.5581644619299</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2547.518411739271</v>
+        <v>2236.609914366989</v>
       </c>
       <c r="C8" t="n">
-        <v>2137.393821052541</v>
+        <v>1826.485323680259</v>
       </c>
       <c r="D8" t="n">
-        <v>1732.929891145602</v>
+        <v>1422.02139377332</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.589675662498</v>
+        <v>1007.681178290216</v>
       </c>
       <c r="F8" t="n">
-        <v>897.5592636161858</v>
+        <v>586.6507662439038</v>
       </c>
       <c r="G8" t="n">
-        <v>488.830979509018</v>
+        <v>177.922482136736</v>
       </c>
       <c r="H8" t="n">
         <v>177.922482136736</v>
@@ -4825,7 +4825,7 @@
         <v>4298.794253809469</v>
       </c>
       <c r="Q8" t="n">
-        <v>4578.535972690457</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R8" t="n">
         <v>4578.535972690457</v>
@@ -4834,22 +4834,22 @@
         <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>4443.254897484558</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>4443.254897484558</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V8" t="n">
-        <v>4143.079963151549</v>
+        <v>3832.171465779268</v>
       </c>
       <c r="W8" t="n">
-        <v>3759.319662286718</v>
+        <v>3448.411164914436</v>
       </c>
       <c r="X8" t="n">
-        <v>3358.676264455671</v>
+        <v>3047.767767083389</v>
       </c>
       <c r="Y8" t="n">
-        <v>2957.739591403761</v>
+        <v>2646.831094031479</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K9" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="L9" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="M9" t="n">
-        <v>934.5478001483758</v>
+        <v>323.2919466575477</v>
       </c>
       <c r="N9" t="n">
-        <v>1808.205892259994</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O9" t="n">
-        <v>2138.059915304309</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P9" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R9" t="n">
         <v>2138.059915304309</v>
@@ -4986,28 +4986,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>1349.305129629969</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T10" t="n">
-        <v>1109.756390606671</v>
+        <v>1195.029108931271</v>
       </c>
       <c r="U10" t="n">
-        <v>826.9582431527954</v>
+        <v>912.2309614773956</v>
       </c>
       <c r="V10" t="n">
-        <v>553.0724980923173</v>
+        <v>742.3499865994054</v>
       </c>
       <c r="W10" t="n">
-        <v>274.0028336011917</v>
+        <v>742.3499865994054</v>
       </c>
       <c r="X10" t="n">
-        <v>91.57071945380915</v>
+        <v>504.0061244590888</v>
       </c>
       <c r="Y10" t="n">
-        <v>91.57071945380915</v>
+        <v>279.2704258478535</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2419.525488667039</v>
+        <v>2138.790127632103</v>
       </c>
       <c r="C11" t="n">
-        <v>2009.400897980309</v>
+        <v>1728.665536945373</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.93696807337</v>
+        <v>1324.201607038434</v>
       </c>
       <c r="E11" t="n">
-        <v>1318.589675662498</v>
+        <v>909.8613915553304</v>
       </c>
       <c r="F11" t="n">
-        <v>897.5592636161858</v>
+        <v>488.830979509018</v>
       </c>
       <c r="G11" t="n">
         <v>488.830979509018</v>
@@ -5047,22 +5047,22 @@
         <v>883.9156920306029</v>
       </c>
       <c r="L11" t="n">
-        <v>1596.507091842841</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M11" t="n">
-        <v>2372.825682834595</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N11" t="n">
-        <v>3126.006699473213</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O11" t="n">
-        <v>3769.637555890318</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P11" t="n">
-        <v>4298.794253809469</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q11" t="n">
-        <v>4578.535972690457</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R11" t="n">
         <v>4578.535972690457</v>
@@ -5077,16 +5077,16 @@
         <v>3963.987921690927</v>
       </c>
       <c r="V11" t="n">
-        <v>3614.150367027407</v>
+        <v>3734.351679044381</v>
       </c>
       <c r="W11" t="n">
-        <v>3230.390066162576</v>
+        <v>3350.59137817955</v>
       </c>
       <c r="X11" t="n">
-        <v>2829.746668331528</v>
+        <v>2949.947980348502</v>
       </c>
       <c r="Y11" t="n">
-        <v>2829.746668331528</v>
+        <v>2549.011307296592</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>1226.509558131796</v>
+        <v>1401.278005201029</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.509558131796</v>
+        <v>1401.278005201029</v>
       </c>
       <c r="N12" t="n">
-        <v>1226.509558131796</v>
+        <v>1401.278005201029</v>
       </c>
       <c r="O12" t="n">
-        <v>1226.509558131796</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="P12" t="n">
-        <v>1788.215450620326</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q12" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R12" t="n">
         <v>2138.059915304309</v>
@@ -5229,19 +5229,19 @@
         <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1390.40383721084</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U13" t="n">
-        <v>1107.605689756965</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V13" t="n">
-        <v>833.7199446964867</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W13" t="n">
-        <v>554.650280205361</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X13" t="n">
-        <v>316.3064180650445</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y13" t="n">
         <v>91.57071945380915</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2153.869890821028</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C14" t="n">
-        <v>1743.745300134298</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="D14" t="n">
-        <v>1339.281370227359</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E14" t="n">
-        <v>924.9411547442555</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F14" t="n">
         <v>811.207500933259</v>
@@ -5278,7 +5278,7 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7802573176947</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K14" t="n">
         <v>801.9397584267342</v>
@@ -5305,25 +5305,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T14" t="n">
-        <v>4356.329488637316</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U14" t="n">
-        <v>4099.268996896826</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V14" t="n">
-        <v>3749.431442233307</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W14" t="n">
-        <v>3365.671141368475</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X14" t="n">
-        <v>2965.027743537428</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y14" t="n">
-        <v>2564.091070485518</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>740.1898332817411</v>
       </c>
       <c r="L15" t="n">
-        <v>1226.509558131796</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M15" t="n">
-        <v>1226.509558131796</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="N15" t="n">
-        <v>1226.509558131796</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="O15" t="n">
-        <v>1226.509558131796</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P15" t="n">
-        <v>1788.215450620326</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q15" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R15" t="n">
         <v>2138.059915304309</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.190348929063</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C16" t="n">
-        <v>799.0969764907795</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D16" t="n">
-        <v>639.6023318136895</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E16" t="n">
-        <v>478.691516682009</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F16" t="n">
-        <v>314.0603907926002</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G16" t="n">
-        <v>146.8099997181436</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H16" t="n">
         <v>91.57071945380915</v>
@@ -5466,22 +5466,22 @@
         <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1620.969616074659</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U16" t="n">
-        <v>1620.969616074659</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V16" t="n">
-        <v>1620.969616074659</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W16" t="n">
-        <v>1620.969616074659</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X16" t="n">
-        <v>1382.625753934343</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y16" t="n">
-        <v>1157.890055323107</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E17" t="n">
-        <v>1287.649206862142</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F17" t="n">
         <v>899.2322418529996</v>
@@ -5515,7 +5515,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674168</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>3264.314802508572</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>3750.634527358626</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>3750.634527358626</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>3750.634527358626</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>3750.634527358626</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>4312.340419847156</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.6240469015422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>745.5306744632587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.121900749462</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.121900749462</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1104.323753295587</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1104.323753295587</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.323753295587</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1104.323753295587</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1104.323753295587</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4624.019917181994</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4401.813433128853</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4144.752941388363</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5837,7 +5837,7 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
         <v>1198.623017005979</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>4388.299139470661</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>4109.229474979536</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>3962.885481594423</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>3962.885481594423</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
         <v>812.8804791700727</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>1964.656875926373</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
         <v>2110.173374178493</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4422.636145507842</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U25" t="n">
-        <v>4139.837998053967</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>3865.952252993488</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>3586.882588502363</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>3348.538726362046</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>3868.173511609275</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>3674.379532790525</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>3674.379532790525</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>3674.379532790525</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6496,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1182.57754799176</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1182.57754799176</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V31" t="n">
-        <v>1182.57754799176</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W31" t="n">
-        <v>1182.57754799176</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.57754799176</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y31" t="n">
-        <v>1182.57754799176</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2452.075282119331</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>2041.950691432601</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.486761525662</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>1223.146546042558</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>802.1161339962459</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3663.876532666778</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>3263.23313483573</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2862.29646178382</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>592.7987223006619</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>554.7454763291312</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>275.6758118380055</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>257.8748235800315</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2134.851174492981</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C35" t="n">
-        <v>1724.726583806251</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.262653899312</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4559.51725636241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4337.310772309269</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4080.250280568779</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3730.41272590526</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3346.652425040428</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X35" t="n">
-        <v>2946.009027209381</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y35" t="n">
-        <v>2545.072354157471</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N36" t="n">
-        <v>1597.308950304478</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.2436976906228</v>
+        <v>740.6895610749962</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1537.369875986873</v>
       </c>
       <c r="T37" t="n">
-        <v>1297.821136963575</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U37" t="n">
-        <v>1015.022989509699</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V37" t="n">
-        <v>741.1372444492208</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W37" t="n">
-        <v>462.0675799580952</v>
+        <v>984.4144664352689</v>
       </c>
       <c r="X37" t="n">
-        <v>223.7237178177785</v>
+        <v>746.0706042949523</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.2436976906228</v>
+        <v>740.6895610749962</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1066.231502096085</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C40" t="n">
-        <v>895.138129657802</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D40" t="n">
-        <v>735.6434849807119</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E40" t="n">
-        <v>574.7326698490315</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>410.1015439596227</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>1350.978107866783</v>
+        <v>1001.149204710727</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.092362806305</v>
+        <v>727.2634596502494</v>
       </c>
       <c r="W40" t="n">
-        <v>1077.092362806305</v>
+        <v>448.1937951591237</v>
       </c>
       <c r="X40" t="n">
-        <v>1077.092362806305</v>
+        <v>448.1937951591237</v>
       </c>
       <c r="Y40" t="n">
-        <v>1077.092362806305</v>
+        <v>448.1937951591237</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2153.869890821028</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C41" t="n">
-        <v>1743.745300134298</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D41" t="n">
-        <v>1339.281370227359</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E41" t="n">
-        <v>1007.681178290216</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F41" t="n">
-        <v>586.6507662439038</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G41" t="n">
-        <v>177.922482136736</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H41" t="n">
         <v>177.922482136736</v>
@@ -7438,25 +7438,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T41" t="n">
-        <v>4356.329488637316</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U41" t="n">
-        <v>4099.268996896826</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V41" t="n">
-        <v>3749.431442233307</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="W41" t="n">
-        <v>3365.671141368475</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X41" t="n">
-        <v>2965.027743537428</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y41" t="n">
-        <v>2564.091070485518</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K42" t="n">
-        <v>91.57071945380915</v>
+        <v>492.9929482232712</v>
       </c>
       <c r="L42" t="n">
-        <v>752.6588913730974</v>
+        <v>492.9929482232712</v>
       </c>
       <c r="M42" t="n">
-        <v>752.6588913730974</v>
+        <v>492.9929482232712</v>
       </c>
       <c r="N42" t="n">
-        <v>752.6588913730974</v>
+        <v>492.9929482232712</v>
       </c>
       <c r="O42" t="n">
-        <v>1456.615981918992</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P42" t="n">
-        <v>2018.321874407522</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q42" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R42" t="n">
         <v>2138.059915304309</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>914.9510686647286</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C43" t="n">
-        <v>743.8576962264451</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D43" t="n">
-        <v>584.3630515493551</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E43" t="n">
-        <v>423.4522364176745</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F43" t="n">
-        <v>258.8211105282658</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G43" t="n">
         <v>91.57071945380915</v>
@@ -7599,22 +7599,22 @@
         <v>1620.969616074659</v>
       </c>
       <c r="T43" t="n">
-        <v>1620.969616074659</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U43" t="n">
-        <v>1620.969616074659</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V43" t="n">
-        <v>1620.969616074659</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W43" t="n">
-        <v>1565.730335810325</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.386473670008</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y43" t="n">
-        <v>1102.650775058773</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2410.930382561518</v>
+        <v>2428.809995279618</v>
       </c>
       <c r="C44" t="n">
-        <v>2000.805791874788</v>
+        <v>2018.685404592889</v>
       </c>
       <c r="D44" t="n">
-        <v>1596.341861967849</v>
+        <v>1614.221474685949</v>
       </c>
       <c r="E44" t="n">
-        <v>1182.001646484745</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F44" t="n">
-        <v>811.207500933259</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4792168260911</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H44" t="n">
-        <v>91.57071945380915</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I44" t="n">
         <v>91.57071945380915</v>
@@ -7669,31 +7669,31 @@
         <v>4298.794253809469</v>
       </c>
       <c r="Q44" t="n">
-        <v>4578.535972690457</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R44" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T44" t="n">
-        <v>4356.329488637316</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U44" t="n">
-        <v>4356.329488637316</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V44" t="n">
-        <v>4006.491933973797</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W44" t="n">
-        <v>3622.731633108965</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X44" t="n">
-        <v>3222.088235277918</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y44" t="n">
-        <v>2821.151562226008</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>284.3835770164424</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K45" t="n">
-        <v>740.1898332817411</v>
+        <v>254.5906786438406</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.950038769166</v>
+        <v>915.6788505631289</v>
       </c>
       <c r="M45" t="n">
-        <v>1196.950038769166</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="N45" t="n">
-        <v>1196.950038769166</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="O45" t="n">
-        <v>1196.950038769166</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="P45" t="n">
         <v>1758.655931257696</v>
@@ -7833,25 +7833,25 @@
         <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>1434.577847954569</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1195.029108931271</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U46" t="n">
-        <v>912.2309614773956</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V46" t="n">
-        <v>638.3452164169175</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W46" t="n">
-        <v>359.2755519257919</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X46" t="n">
-        <v>120.9316897854753</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.9316897854753</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7990,16 +7990,16 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>296.9001458002834</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,16 +8057,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>198.9610844237786</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>564.254347687538</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>292.3871721926164</v>
       </c>
       <c r="L5" t="n">
-        <v>496.3946935832878</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8306,19 +8306,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>200.7852390175284</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>525.371627415828</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>372.6011972082306</v>
+        <v>331.6348884308923</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
@@ -8540,22 +8540,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>96.86566721428137</v>
       </c>
       <c r="N9" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>732.4707174652381</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>372.6011972082306</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>547.3465691139343</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8783,16 +8783,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>418.7392830976426</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>247.2726194786469</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>549.9278720016724</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -9011,7 +9011,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>547.3465691139343</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9020,7 +9020,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367923</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
@@ -9029,7 +9029,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9248,7 +9248,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>547.3465691139345</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9266,7 +9266,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9485,10 +9485,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>518.93822867521</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9722,7 +9722,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
@@ -9737,7 +9737,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>203.6789803756668</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N30" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>560.7155587704844</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O36" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>713.8858861212706</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>266.5423193571698</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11159,10 +11159,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>372.6011972082306</v>
+        <v>331.6348884308923</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>220.4924082290917</v>
       </c>
       <c r="L45" t="n">
-        <v>517.4884687476414</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,7 +11393,7 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>48.58520612859965</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>46.98004667020493</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22609,10 +22609,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>40.68772050506294</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>360.0242673938928</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>363.6893973866663</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>6.694084528254763</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>87.81931075567493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>49.16599412720581</v>
+        <v>215.8408877643417</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>102.964722480663</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>126.7129938415096</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>118.9992988968043</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23469,7 +23469,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>37.73276449893291</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>304.2237906529627</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.42449318090675</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23706,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="17">
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>32.28731256679839</v>
+        <v>54.06597461814522</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>35.78235495385277</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>96.14494677818598</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24135,16 +24135,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24180,10 +24180,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>91.07987006765228</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.893130557883893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24615,10 +24615,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V28" t="n">
-        <v>79.29084857931122</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>187.9942390719858</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>126.945026968824</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>70.43669735679174</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>10.65670172208843</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>218.3374451435192</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>32.28731256679784</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>49.19646844041375</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25326,10 +25326,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25365,10 +25365,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.31312169923876</v>
+        <v>217.1611088373663</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.0704572269867</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>86.37281234655288</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>81.91262331050115</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>177.3011210460166</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,16 +25839,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>221.5920803845235</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>117.5213322950561</v>
       </c>
       <c r="F44" t="n">
-        <v>49.73390382987782</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.7553487017545</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26073,10 +26073,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504762.0348035535</v>
+        <v>504762.0348035536</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>759975.5605080363</v>
+        <v>759975.5605080362</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759975.5605080362</v>
+        <v>759975.5605080363</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>768548.2186886567</v>
+        <v>768548.2186886568</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>768548.2186886568</v>
+        <v>768548.2186886569</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>768548.2186886568</v>
+        <v>768548.2186886569</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>768548.2186886566</v>
+        <v>768548.2186886568</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>768548.2186886566</v>
+        <v>768548.218688657</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>768548.2186886568</v>
+        <v>768548.2186886569</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>768548.2186886569</v>
+        <v>768548.2186886568</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759975.5605080362</v>
+        <v>759975.5605080364</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759975.5605080362</v>
+        <v>759975.5605080363</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>199771.9648954104</v>
       </c>
       <c r="D2" t="n">
-        <v>300739.5843891959</v>
+        <v>300739.5843891958</v>
       </c>
       <c r="E2" t="n">
-        <v>300739.5843891958</v>
+        <v>300739.584389196</v>
       </c>
       <c r="F2" t="n">
         <v>300739.5843891958</v>
       </c>
       <c r="G2" t="n">
+        <v>304131.1009118483</v>
+      </c>
+      <c r="H2" t="n">
+        <v>304131.1009118484</v>
+      </c>
+      <c r="I2" t="n">
         <v>304131.1009118485</v>
-      </c>
-      <c r="H2" t="n">
-        <v>304131.1009118485</v>
-      </c>
-      <c r="I2" t="n">
-        <v>304131.1009118484</v>
       </c>
       <c r="J2" t="n">
         <v>304131.1009118485</v>
       </c>
       <c r="K2" t="n">
-        <v>304131.1009118483</v>
+        <v>304131.1009118485</v>
       </c>
       <c r="L2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="M2" t="n">
         <v>304131.1009118484</v>
-      </c>
-      <c r="M2" t="n">
-        <v>304131.1009118485</v>
       </c>
       <c r="N2" t="n">
         <v>304131.1009118485</v>
       </c>
       <c r="O2" t="n">
-        <v>300739.5843891958</v>
+        <v>300739.5843891957</v>
       </c>
       <c r="P2" t="n">
         <v>300739.5843891958</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="C4" t="n">
         <v>39061.35498003941</v>
@@ -26426,7 +26426,7 @@
         <v>58978.10473564107</v>
       </c>
       <c r="E4" t="n">
-        <v>58978.10473564106</v>
+        <v>58978.10473564107</v>
       </c>
       <c r="F4" t="n">
         <v>58978.10473564107</v>
@@ -26435,19 +26435,19 @@
         <v>59647.11115782198</v>
       </c>
       <c r="H4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="I4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="J4" t="n">
         <v>59647.11115782198</v>
       </c>
-      <c r="I4" t="n">
-        <v>59647.11115782199</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>59647.11115782197</v>
       </c>
-      <c r="K4" t="n">
-        <v>59647.11115782199</v>
-      </c>
       <c r="L4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="M4" t="n">
         <v>59647.11115782197</v>
@@ -26456,10 +26456,10 @@
         <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>58978.10473564108</v>
+        <v>58978.10473564107</v>
       </c>
       <c r="P4" t="n">
-        <v>58978.10473564107</v>
+        <v>58978.10473564106</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79613.96505624056</v>
+        <v>-80291.49391563461</v>
       </c>
       <c r="C6" t="n">
-        <v>95341.54483687345</v>
+        <v>94664.01597747943</v>
       </c>
       <c r="D6" t="n">
-        <v>-54848.91756650829</v>
+        <v>-55045.6482378368</v>
       </c>
       <c r="E6" t="n">
-        <v>172167.7328686598</v>
+        <v>171971.0021973315</v>
       </c>
       <c r="F6" t="n">
-        <v>172167.7328686598</v>
+        <v>171971.0021973314</v>
       </c>
       <c r="G6" t="n">
-        <v>167887.0515086898</v>
+        <v>167706.4709160405</v>
       </c>
       <c r="H6" t="n">
-        <v>173618.7795091532</v>
+        <v>173438.1989165041</v>
       </c>
       <c r="I6" t="n">
-        <v>173618.7795091531</v>
+        <v>173438.1989165041</v>
       </c>
       <c r="J6" t="n">
-        <v>37023.97870325821</v>
+        <v>36843.39811060909</v>
       </c>
       <c r="K6" t="n">
-        <v>173618.779509153</v>
+        <v>173438.1989165041</v>
       </c>
       <c r="L6" t="n">
-        <v>16051.80863162316</v>
+        <v>15871.22803897418</v>
       </c>
       <c r="M6" t="n">
-        <v>173618.7795091532</v>
+        <v>173438.1989165041</v>
       </c>
       <c r="N6" t="n">
-        <v>173618.7795091533</v>
+        <v>173438.1989165041</v>
       </c>
       <c r="O6" t="n">
-        <v>172167.7328686598</v>
+        <v>171971.0021973313</v>
       </c>
       <c r="P6" t="n">
-        <v>172167.7328686598</v>
+        <v>171971.0021973314</v>
       </c>
     </row>
   </sheetData>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>147.5918456237786</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="L5" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>147.5918456237784</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>471.1119924130243</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>282.5673928090785</v>
+        <v>241.6010840317402</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>39.30138347586395</v>
       </c>
       <c r="N9" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>636.9853194023932</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>282.5673928090785</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2320453030853</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>360.9878040976426</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>173.9490281453389</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>460.7914823284553</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35731,7 +35731,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2320453030853</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
@@ -35749,7 +35749,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
@@ -35968,7 +35968,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2320453030855</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36205,10 +36205,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>146.9863618708281</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N30" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>504.6010349596355</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O36" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>210.7165365725544</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>282.5673928090785</v>
+        <v>241.6010840317402</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>164.6666254444763</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3739449367923</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
